--- a/zibs2024/mappable/Nl.zorg.part.InstructionsForUse-v3.1(2024EN).xlsx
+++ b/zibs2024/mappable/Nl.zorg.part.InstructionsForUse-v3.1(2024EN).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/jacob_engel_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/zibs2024/mappable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_3E1DB3B7D3405E5A13F93711595ED87656CDF5E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C84CA6EC-E68D-6B46-ACF3-E3EF355C642A}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_3E1DB3B7D3405E5A13F93711595ED87656CDF5E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F4C31FA-0EC8-4C6A-89FF-45A604D8179B}"/>
   <bookViews>
-    <workbookView xWindow="20260" yWindow="1980" windowWidth="41460" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="-21270" windowWidth="17415" windowHeight="19605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -419,6 +419,33 @@
   </si>
   <si>
     <t>AdministeringSchedule.Frequency::Range</t>
+  </si>
+  <si>
+    <t>AsNeeded.Condition</t>
+  </si>
+  <si>
+    <t>AsNeeded.MaximumDose</t>
+  </si>
+  <si>
+    <t>InstructionsForUse.DosingInstructions.Dosage.AdministeringSchedule.Interval</t>
+  </si>
+  <si>
+    <t>InstructionsForUse.DosingInstructions.Dosage.AdministeringSchedule.AdministrationTime</t>
+  </si>
+  <si>
+    <t>InstructionsForUse.DosingInstructions.Dosage.AdministeringSchedule.PartOfDay</t>
+  </si>
+  <si>
+    <t>InstructionsForUse.DosingInstructions.Dosage.AdministeringSchedule.Frequency::Range</t>
+  </si>
+  <si>
+    <t>InstructionsForUse.DosingInstructions.Dosage.AsNeeded.Condition</t>
+  </si>
+  <si>
+    <t>InstructionsForUse.DosingInstructions.Dosage.AsNeeded.MaximumDose</t>
+  </si>
+  <si>
+    <t>InstructionsForUse.DosingInstructions.Dosage.AdministeringSchedule.WeekDay</t>
   </si>
 </sst>
 </file>
@@ -785,15 +812,16 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -842,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -868,7 +896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -894,7 +922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -920,7 +948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -946,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -969,7 +997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -995,7 +1023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1021,7 +1049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1044,7 +1072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1067,7 +1095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1090,7 +1118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1113,7 +1141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1136,12 +1164,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>83</v>
@@ -1162,12 +1190,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
@@ -1188,7 +1216,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -1211,12 +1239,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -1234,12 +1262,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
         <v>97</v>
@@ -1260,12 +1288,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
         <v>100</v>
@@ -1286,12 +1314,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
@@ -1312,12 +1340,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>107</v>
